--- a/DATA_goal/Junction_Flooding_24.xlsx
+++ b/DATA_goal/Junction_Flooding_24.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,110 +1690,6 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>44781.07637731481</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>25.65</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>7.81</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_goal/Junction_Flooding_24.xlsx
+++ b/DATA_goal/Junction_Flooding_24.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.62</v>
+        <v>2.46</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.95</v>
+        <v>12.99</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.89</v>
+        <v>2.49</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.83</v>
+        <v>2.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>33.36</v>
+        <v>3.34</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.36</v>
+        <v>2.64</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>44.51</v>
+        <v>4.45</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>175.79</v>
+        <v>17.58</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>33.62</v>
+        <v>3.36</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.17</v>
+        <v>2.22</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.39</v>
+        <v>2.24</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.71</v>
+        <v>4.07</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>33.41</v>
+        <v>3.34</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.79</v>
+        <v>2.68</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>47.08</v>
+        <v>4.71</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.35</v>
+        <v>1.03</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>175.8</v>
+        <v>17.58</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>33.66</v>
+        <v>3.37</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>22.39</v>
+        <v>2.24</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.01</v>
+        <v>2.3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.32</v>
+        <v>1.03</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>42.9</v>
+        <v>4.29</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.7</v>
+        <v>1.17</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.47</v>
+        <v>3.45</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.87</v>
+        <v>2.79</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>48.76</v>
+        <v>4.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.82</v>
+        <v>1.38</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.88</v>
+        <v>0.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.59</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.52</v>
+        <v>18.15</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.71</v>
+        <v>3.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.2</v>
+        <v>2.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.17</v>
+        <v>1.22</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.7</v>
+        <v>2.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.53</v>
+        <v>1.45</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.33</v>
+        <v>4.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>44781.03472222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>32.39</v>
+        <v>3.24</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>26.27</v>
+        <v>2.63</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>46.26</v>
+        <v>4.63</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>13.85</v>
+        <v>1.39</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.65</v>
+        <v>0.37</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>16.55</v>
+        <v>1.66</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>170.08</v>
+        <v>17.01</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>32.62</v>
+        <v>3.26</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>21.84</v>
+        <v>2.18</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>22.4</v>
+        <v>2.24</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>13.65</v>
+        <v>1.37</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>42.05</v>
+        <v>4.2</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>13.45</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>44781.04166666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>31.35</v>
+        <v>3.13</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>25.49</v>
+        <v>2.55</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>44.7</v>
+        <v>4.47</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>17.45</v>
+        <v>1.75</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>16.04</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>164.36</v>
+        <v>16.44</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>31.56</v>
+        <v>3.16</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>21.17</v>
+        <v>2.12</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>21.64</v>
+        <v>2.16</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>40.61</v>
+        <v>4.06</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>44781.04861111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>22.5</v>
+        <v>2.25</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.85</v>
+        <v>1.69</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>49.12</v>
+        <v>4.91</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>40.24</v>
+        <v>4.02</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>67.8</v>
+        <v>6.78</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>27.34</v>
+        <v>2.73</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.71</v>
+        <v>1.97</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.93</v>
+        <v>2.09</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>25.19</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>261.65</v>
+        <v>26.16</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>49.39</v>
+        <v>4.94</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>33.29</v>
+        <v>3.33</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>33.22</v>
+        <v>3.32</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>20.72</v>
+        <v>2.07</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>61.55</v>
+        <v>6.16</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>44781.05555555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>21.07</v>
+        <v>2.11</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>45.98</v>
+        <v>4.6</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>37.69</v>
+        <v>3.77</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>65.48999999999999</v>
+        <v>6.55</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.45</v>
+        <v>1.84</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.59</v>
+        <v>1.96</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>23.6</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>244.48</v>
+        <v>24.45</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>46.29</v>
+        <v>4.63</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>31.2</v>
+        <v>3.12</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.37</v>
+        <v>1.64</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>31.75</v>
+        <v>3.18</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>19.4</v>
+        <v>1.94</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>59.51</v>
+        <v>5.95</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>44781.0625</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>30.31</v>
+        <v>3.03</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>24.77</v>
+        <v>2.48</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>45.06</v>
+        <v>4.51</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.45</v>
+        <v>0.34</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>158.64</v>
+        <v>15.86</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>30.56</v>
+        <v>3.06</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>20.57</v>
+        <v>2.06</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.77</v>
+        <v>1.08</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>21.54</v>
+        <v>2.15</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.25</v>
+        <v>0.92</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>40.99</v>
+        <v>4.1</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_24.xlsx
+++ b/DATA_goal/Junction_Flooding_24.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,132 +652,132 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.00694444445</v>
+        <v>44076.67430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.46</v>
+        <v>3.22</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.81</v>
+        <v>2.42</v>
       </c>
       <c r="G2" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>0.86</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.79</v>
+        <v>1.03</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.28</v>
+        <v>3.14</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.04</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.01388888889</v>
+        <v>44076.68125</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.34</v>
+        <v>3.36</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>2.64</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.45</v>
+        <v>4.56</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>1.86</v>
@@ -786,16 +786,16 @@
         <v>0.8</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>1.33</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>1.2</v>
@@ -807,16 +807,16 @@
         <v>1.05</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>17.58</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>1.11</v>
@@ -828,28 +828,28 @@
         <v>1.16</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>0.98</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>1.04</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.07</v>
+        <v>4.19</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>0.61</v>
@@ -860,834 +860,314 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.02083333334</v>
+        <v>44076.68819444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.34</v>
+        <v>3.46</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.68</v>
+        <v>2.77</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.71</v>
+        <v>4.85</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>17.58</v>
+        <v>18.15</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.37</v>
+        <v>3.47</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.24</v>
+        <v>2.31</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.29</v>
+        <v>4.42</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.02777777778</v>
+        <v>44076.69513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.57</v>
+        <v>1.92</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.45</v>
+        <v>4.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.79</v>
+        <v>3.39</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>1.23</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.01</v>
-      </c>
       <c r="AB5" s="4" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.43</v>
+        <v>5.31</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.43</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>44781.03472222222</v>
+        <v>44076.70207175926</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.48</v>
+        <v>18.69</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.1</v>
+        <v>13.85</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>1.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.24</v>
+        <v>40.87</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.63</v>
+        <v>33.2</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.16</v>
+        <v>14.65</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.63</v>
+        <v>57.82</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8</v>
+        <v>22.69</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.8</v>
+        <v>10.07</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.17</v>
+        <v>14.86</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.3</v>
+        <v>16.34</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.39</v>
+        <v>17.34</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.37</v>
+        <v>4.71</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.17</v>
+        <v>14.66</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.66</v>
+        <v>20.86</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.99</v>
+        <v>12.38</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.67</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.73</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>17.01</v>
+        <v>215.87</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.26</v>
+        <v>41.03</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.08</v>
+        <v>13.53</v>
       </c>
       <c r="W6" s="4" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>2.18</v>
       </c>
-      <c r="X6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.17</v>
-      </c>
       <c r="Z6" s="4" t="n">
-        <v>2.24</v>
+        <v>28.02</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.95</v>
+        <v>11.95</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.85</v>
+        <v>10.6</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.99</v>
+        <v>12.47</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.37</v>
+        <v>17.05</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.2</v>
+        <v>52.62</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>44781.04166666666</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>44781.04861111111</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>44781.05555555555</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>44781.0625</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>44781.06944444445</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>49.94</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>4.34</v>
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_24.xlsx
+++ b/DATA_goal/Junction_Flooding_24.xlsx
@@ -447,7 +447,7 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
@@ -655,103 +655,103 @@
         <v>44076.67430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.84</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.22</v>
+        <v>32.24</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.5</v>
+        <v>34.96</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.28</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>17</v>
+        <v>170.03</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.23</v>
+        <v>32.3</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.81</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.14</v>
+        <v>31.42</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.68125</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.32</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.91</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.36</v>
+        <v>33.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.64</v>
+        <v>26.42</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.94</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.56</v>
+        <v>45.65</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.69</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.31</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.12</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.45</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>17.58</v>
+        <v>175.8</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.37</v>
+        <v>33.65</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.22</v>
+        <v>22.21</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.59</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.25</v>
+        <v>22.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.85</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.7</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.19</v>
+        <v>41.86</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.68819444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.46</v>
+        <v>34.64</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.77</v>
+        <v>27.69</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.35</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.85</v>
+        <v>48.46</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.31</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.8</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.65</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.55</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.64</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.15</v>
+        <v>181.52</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.47</v>
+        <v>34.71</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.31</v>
+        <v>23.11</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.66</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.3</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.42</v>
+        <v>44.21</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44076.69513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.14</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.19</v>
+        <v>41.93</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.39</v>
+        <v>33.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.83</v>
+        <v>58.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>22.16</v>
+        <v>221.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.21</v>
+        <v>42.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.82</v>
+        <v>28.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.78</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.84</v>
+        <v>28.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.82</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.31</v>
+        <v>53.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_24.xlsx
+++ b/DATA_goal/Junction_Flooding_24.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44076.67430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.84</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.7</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.24</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.17</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.96</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.53</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.28</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.03</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.3</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.81</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.71</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.84</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.29</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.3</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.68</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.42</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.45</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>15.32</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.91</v>
+        <v>10.908</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.74</v>
+        <v>1.741</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>33.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.42</v>
+        <v>26.418</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.94</v>
+        <v>11.938</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.65</v>
+        <v>45.648</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.62</v>
+        <v>18.615</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.01</v>
+        <v>8.012</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.69</v>
+        <v>11.688</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.31</v>
+        <v>13.312</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>14.12</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.86</v>
+        <v>3.865</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.03</v>
+        <v>12.031</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.92</v>
+        <v>16.915</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.45</v>
+        <v>10.454</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.46</v>
+        <v>1.455</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>175.8</v>
+        <v>175.798</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>33.65</v>
+        <v>33.651</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.1</v>
+        <v>11.105</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.21</v>
+        <v>22.209</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.59</v>
+        <v>11.594</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.2</v>
+        <v>2.203</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.52</v>
+        <v>22.516</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.85</v>
+        <v>8.847</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.44</v>
+        <v>10.436</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.7</v>
+        <v>13.704</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>41.86</v>
+        <v>41.863</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.06</v>
+        <v>6.063</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.88</v>
+        <v>13.884</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.68819444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.8</v>
+        <v>15.805</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.5</v>
+        <v>11.504</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.29</v>
+        <v>1.289</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>34.64</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.69</v>
+        <v>27.687</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.35</v>
+        <v>12.348</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>48.46</v>
+        <v>48.459</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>8.4</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.31</v>
+        <v>12.312</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.8</v>
+        <v>13.796</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.65</v>
+        <v>14.647</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.99</v>
+        <v>3.985</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.55</v>
+        <v>17.549</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>10.64</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.794</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>181.52</v>
+        <v>181.522</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>34.71</v>
+        <v>34.705</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.11</v>
+        <v>23.107</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.1</v>
+        <v>12.101</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.05</v>
+        <v>2.046</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.54</v>
+        <v>23.536</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>9.054</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.66</v>
+        <v>10.656</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.3</v>
+        <v>14.298</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.21</v>
+        <v>44.207</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>6.34</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.32</v>
+        <v>14.318</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>17.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.70207175926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.87</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>57.82</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>215.87</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>41.03</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>28.02</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>52.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_24.xlsx
+++ b/DATA_goal/Junction_Flooding_24.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>44076.69513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.17</v>
+        <v>19.171</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.14</v>
+        <v>14.144</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.19</v>
+        <v>1.192</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.93</v>
+        <v>41.932</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.94</v>
+        <v>33.938</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.02</v>
+        <v>15.015</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.32</v>
+        <v>58.324</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.29</v>
+        <v>10.291</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.17</v>
+        <v>15.172</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.75</v>
+        <v>16.753</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.78</v>
+        <v>17.779</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.36</v>
+        <v>21.362</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.74</v>
+        <v>12.743</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.58</v>
+        <v>221.584</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.05</v>
+        <v>42.052</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.18</v>
+        <v>28.183</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.78</v>
+        <v>14.778</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.29</v>
+        <v>2.288</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.4</v>
+        <v>28.402</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.897</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.82</v>
+        <v>12.821</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.45</v>
+        <v>17.454</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>53.07</v>
+        <v>53.072</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.77</v>
+        <v>7.768</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44076.70207175926</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>40.87</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>215.87</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>41.03</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>52.62</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_24.xlsx
+++ b/DATA_goal/Junction_Flooding_24.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>44076.69513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.171</v>
+        <v>19.17</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.144</v>
+        <v>14.14</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.192</v>
+        <v>1.19</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.932</v>
+        <v>41.93</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.938</v>
+        <v>33.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.015</v>
+        <v>15.02</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.324</v>
+        <v>58.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.269</v>
+        <v>23.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.291</v>
+        <v>10.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.172</v>
+        <v>15.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.753</v>
+        <v>16.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.779</v>
+        <v>17.78</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.831</v>
+        <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.038</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.362</v>
+        <v>21.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.743</v>
+        <v>12.74</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.584</v>
+        <v>221.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.052</v>
+        <v>42.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.881</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.183</v>
+        <v>28.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.778</v>
+        <v>14.78</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.288</v>
+        <v>2.29</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.402</v>
+        <v>28.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.261</v>
+        <v>12.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.897</v>
+        <v>10.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.821</v>
+        <v>12.82</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.454</v>
+        <v>17.45</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>53.072</v>
+        <v>53.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.768</v>
+        <v>7.77</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.354</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.70207175926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.87</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>57.82</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>215.87</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>41.03</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>28.02</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>52.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.92</v>
+        <v>17.35</v>
       </c>
     </row>
   </sheetData>
